--- a/数据整理/stocks/A股/上证主板/605338-巴比食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/605338-巴比食品.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002295</t>
+          <t>160921</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合A</t>
+          <t>大成多策略混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.34</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2603</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>73.55</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>8.54</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008604</t>
+          <t>002295</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合C</t>
+          <t>广发稳安灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>90.34</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.43</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160921</t>
+          <t>008604</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成多策略混合(LOF)</t>
+          <t>广发稳安灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +720,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>80.52</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.54</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>31.41</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.15</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -716,15 +796,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>31.41</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.15</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605338-巴比食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/605338-巴比食品.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605338-巴比食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/605338-巴比食品.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3531</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605338-巴比食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/605338-巴比食品.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605338-巴比食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/605338-巴比食品.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.71</v>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1300,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1406,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
@@ -1289,13 +1422,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.49</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605338-巴比食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/605338-巴比食品.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.17</v>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>32.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.71</v>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1406,14 +1471,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.23</v>
       </c>
     </row>
     <row r="5">
@@ -1422,14 +1509,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>32.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6">
@@ -1438,13 +1647,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.49</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605338-巴比食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/605338-巴比食品.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3</v>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.17</v>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.71</v>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1631,14 +1718,34 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.23</v>
       </c>
     </row>
     <row r="6">
@@ -1647,14 +1754,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.28</v>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1663,13 +1790,181 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.49</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605338-巴比食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/605338-巴比食品.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.71</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.23</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -600,6 +617,174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -877,7 +1062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1085,7 +1270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1217,7 +1402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1501,7 +1686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1595,7 +1780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1765,7 +1950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/605338-巴比食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/605338-巴比食品.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.71</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.23</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -616,7 +633,537 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2603</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4116</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>016462</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -784,7 +1331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1062,7 +1609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1270,7 +1817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1402,7 +1949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1686,7 +2233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1780,7 +2327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1948,212 +2495,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160921</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成多策略混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2603</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002319</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成一带一路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>73.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.54</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1238</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002295</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发稳安灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.34</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1063</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008604</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发稳安灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.34</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>